--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -740,24 +747,30 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -771,23 +784,29 @@
       <c r="K9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -798,10 +817,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,13 +852,13 @@
         <v>500</v>
       </c>
       <c r="F12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
@@ -840,10 +867,16 @@
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,37 +1106,49 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,52 +1176,64 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,37 +1526,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,109 +1705,129 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>500</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>1600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>6100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>5500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1648,10 +1839,16 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1659,57 +1856,69 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F46" s="3">
         <v>5600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1719,55 +1928,67 @@
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,19 +2086,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,28 +2236,34 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,28 +2291,34 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2053,37 +2326,49 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-53500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-51800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-50400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-49300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-48100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F76" s="3">
         <v>5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1400</v>
       </c>
       <c r="K89" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,28 +3581,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3125,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3134,14 +3631,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,13 +736,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -753,10 +757,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -790,8 +797,11 @@
       <c r="M9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,13 +812,13 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -823,10 +833,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,13 +853,14 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -858,10 +872,10 @@
         <v>500</v>
       </c>
       <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
@@ -873,10 +887,13 @@
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1100</v>
       </c>
       <c r="K18" s="3">
         <v>-1100</v>
       </c>
       <c r="L18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,43 +1146,49 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1100</v>
       </c>
       <c r="K21" s="3">
         <v>-1100</v>
       </c>
       <c r="L21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1400</v>
       </c>
       <c r="M23" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1228,14 +1274,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1400</v>
       </c>
       <c r="M26" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1400</v>
       </c>
       <c r="M27" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,43 +1602,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1400</v>
       </c>
       <c r="M33" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1400</v>
       </c>
       <c r="M35" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,78 +1793,85 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1789,31 +1882,34 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1826,11 +1922,11 @@
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -1845,15 +1941,18 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -1862,63 +1961,69 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E46" s="3">
         <v>7400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1934,8 +2039,8 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1944,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,57 +2069,60 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>1100</v>
       </c>
       <c r="L48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2106,8 +2226,8 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2431,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2308,20 +2445,20 @@
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -2332,43 +2469,49 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2411,11 +2557,11 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2428,8 +2574,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,13 +2827,16 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1400</v>
       </c>
       <c r="M81" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,19 +3830,22 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
@@ -3610,8 +3856,8 @@
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3622,13 +3868,16 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3637,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -760,15 +767,21 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -777,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -800,31 +813,37 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -836,10 +855,16 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,19 +879,21 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
@@ -875,13 +902,13 @@
         <v>500</v>
       </c>
       <c r="I12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
       </c>
       <c r="K12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
@@ -890,10 +917,16 @@
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,13 +1176,15 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1149,46 +1216,58 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1277,17 +1368,17 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,13 +1700,19 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1843,40 +2022,46 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1885,31 +2070,37 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1925,14 +2116,14 @@
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -1944,103 +2135,121 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F46" s="3">
         <v>6200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>11600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2052,16 +2261,22 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2072,45 +2287,51 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>2500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
@@ -2124,11 +2345,11 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2229,11 +2468,11 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,8 +2701,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2448,23 +2721,23 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
@@ -2472,46 +2745,58 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2560,14 +2851,14 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2577,17 +2868,23 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,19 +3159,25 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E70" s="3">
         <v>2500</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-53500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-51800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-50400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-49300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F76" s="3">
         <v>5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1400</v>
       </c>
       <c r="N89" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,37 +4095,43 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,25 +4318,31 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
@@ -3859,11 +4350,11 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3883,19 +4380,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -752,13 +756,13 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -773,18 +777,21 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -796,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -819,19 +826,22 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -840,13 +850,13 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -861,10 +871,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,22 +894,23 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
@@ -908,10 +922,10 @@
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
@@ -923,10 +937,13 @@
         <v>500</v>
       </c>
       <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
       </c>
       <c r="O17" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1100</v>
       </c>
       <c r="N18" s="3">
         <v>-1100</v>
       </c>
       <c r="O18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1100</v>
       </c>
       <c r="N21" s="3">
         <v>-1100</v>
       </c>
       <c r="O21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1400</v>
       </c>
       <c r="P23" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,14 +1420,14 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1400</v>
       </c>
       <c r="P26" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1400</v>
       </c>
       <c r="P27" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1400</v>
       </c>
       <c r="P33" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1400</v>
       </c>
       <c r="P35" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2028,44 +2118,47 @@
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
@@ -2076,31 +2169,34 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2122,11 +2218,11 @@
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2141,24 +2237,27 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -2167,72 +2266,78 @@
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2267,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2293,39 +2401,42 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
       </c>
       <c r="M48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>1100</v>
       </c>
       <c r="O48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E49" s="3">
         <v>2500</v>
@@ -2333,8 +2444,8 @@
       <c r="F49" s="3">
         <v>2500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="G49" s="3">
+        <v>2500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -2351,8 +2462,8 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2474,8 +2594,8 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2727,20 +2864,20 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
+      <c r="M59" s="3">
+        <v>100</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
@@ -2751,52 +2888,58 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2857,11 +3003,11 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2874,8 +3020,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,22 +3330,25 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>1400</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2500</v>
       </c>
       <c r="F70" s="3">
         <v>2500</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1400</v>
       </c>
       <c r="P81" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,38 +4189,41 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,37 +4331,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,28 +4567,31 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -4356,8 +4602,8 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4368,22 +4614,25 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4392,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -759,13 +763,13 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -780,10 +784,13 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +800,8 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -806,14 +813,14 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,11 +850,11 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -853,14 +863,14 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -874,10 +884,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,25 +908,26 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
@@ -925,10 +939,10 @@
         <v>500</v>
       </c>
       <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
@@ -940,10 +954,13 @@
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>500</v>
+      </c>
+      <c r="R12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1100</v>
       </c>
       <c r="O18" s="3">
         <v>-1100</v>
       </c>
       <c r="P18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1305,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1100</v>
       </c>
       <c r="O21" s="3">
         <v>-1100</v>
       </c>
       <c r="P21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,14 +1469,14 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2121,47 +2211,50 @@
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>500</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2172,60 +2265,63 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2240,27 +2336,30 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
@@ -2269,75 +2368,81 @@
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E46" s="3">
         <v>21400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2375,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -2383,13 +2488,16 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2404,34 +2512,37 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>1100</v>
       </c>
       <c r="P48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,7 +2550,7 @@
         <v>2400</v>
       </c>
       <c r="E49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F49" s="3">
         <v>2500</v>
@@ -2447,8 +2558,8 @@
       <c r="G49" s="3">
         <v>2500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>2500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2465,8 +2576,8 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2688,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E54" s="3">
         <v>24000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2867,20 +3004,20 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
@@ -2891,55 +3028,61 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3006,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -3023,8 +3169,8 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3342,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>1400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2500</v>
       </c>
       <c r="G70" s="3">
         <v>2500</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E76" s="3">
         <v>19300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4192,38 +4413,41 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4334,37 +4564,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,31 +4813,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>3800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4605,8 +4851,8 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4617,25 +4863,28 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4644,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,25 +764,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -787,10 +794,16 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,11 +816,11 @@
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -816,17 +829,17 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,30 +872,30 @@
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -887,10 +906,16 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,31 +934,33 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
@@ -942,13 +969,13 @@
         <v>500</v>
       </c>
       <c r="M12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
       </c>
       <c r="O12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
@@ -957,10 +984,16 @@
         <v>500</v>
       </c>
       <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1244,55 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,14 +1322,14 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>7300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,49 +1378,55 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1472,18 +1563,18 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,14 +1994,14 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +2035,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,126 +2312,140 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3">
+        <v>500</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>1600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>6100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
@@ -2268,31 +2453,37 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2317,17 +2508,17 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
-      </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2339,110 +2530,128 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F46" s="3">
         <v>14300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>21400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>11600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2483,16 +2692,22 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,10 +2715,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2515,34 +2730,40 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
       <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2553,19 +2774,19 @@
         <v>2400</v>
       </c>
       <c r="F49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H49" s="3">
         <v>2500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -2579,11 +2800,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,15 +2956,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F54" s="3">
         <v>16900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3248,14 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3007,23 +3280,23 @@
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
@@ -3031,58 +3304,70 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,13 +3416,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3155,13 +3446,13 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3172,17 +3463,23 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3513,20 +3848,20 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>1400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>2500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>2500</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-53500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-51800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-50400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-49300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-48100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F76" s="3">
         <v>15800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1400</v>
       </c>
       <c r="R89" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4416,38 +4857,44 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4567,37 +5026,43 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>4500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,37 +5301,43 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>11900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>3800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
@@ -4854,11 +5345,11 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4866,22 +5357,28 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -4890,19 +5387,19 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,25 +778,25 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -800,10 +808,16 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,11 +836,11 @@
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -835,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -858,8 +872,14 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,30 +898,30 @@
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -912,10 +932,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,37 +962,39 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
@@ -975,13 +1003,13 @@
         <v>500</v>
       </c>
       <c r="O12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
@@ -990,10 +1018,16 @@
         <v>500</v>
       </c>
       <c r="T12" s="3">
+        <v>500</v>
+      </c>
+      <c r="U12" s="3">
+        <v>500</v>
+      </c>
+      <c r="V12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1231,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1304,61 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,20 +1390,20 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1452,61 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1561,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1569,18 +1661,18 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,20 +2134,20 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2396,61 +2576,67 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>500</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>1600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>6100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2459,31 +2645,37 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2514,17 +2706,17 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2536,122 +2728,140 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
       </c>
       <c r="F45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F46" s="3">
         <v>9900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>12100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>14300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>21400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>11600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2698,16 +2908,22 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2721,10 +2937,10 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2736,42 +2952,48 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F49" s="3">
         <v>2400</v>
@@ -2780,19 +3002,19 @@
         <v>2400</v>
       </c>
       <c r="H49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J49" s="3">
         <v>2500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2500</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -2806,11 +3028,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2962,15 +3202,15 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F54" s="3">
         <v>12300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3402,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,13 +3522,19 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3286,23 +3560,23 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
@@ -3310,64 +3584,76 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3452,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -3469,17 +3761,23 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3854,20 +4190,20 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>1400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>2500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>2500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-26500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-53500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-50400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-49300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-48100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F76" s="3">
         <v>10500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="E89" s="3">
         <v>-400</v>
       </c>
       <c r="F89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1400</v>
       </c>
       <c r="T89" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,38 +5305,44 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5032,37 +5492,43 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>4500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,43 +5793,49 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>11900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>3800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
@@ -5351,11 +5843,11 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,28 +5855,34 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -5393,20 +5891,20 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -784,25 +791,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -814,10 +821,16 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,11 +855,11 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -855,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -878,8 +891,14 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,29 +923,29 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -938,10 +957,16 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,43 +989,45 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
@@ -1009,13 +1036,13 @@
         <v>500</v>
       </c>
       <c r="Q12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
       </c>
       <c r="S12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T12" s="3">
         <v>500</v>
@@ -1024,10 +1051,16 @@
         <v>500</v>
       </c>
       <c r="V12" s="3">
+        <v>500</v>
+      </c>
+      <c r="W12" s="3">
+        <v>500</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,35 +1446,37 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1443,70 +1510,82 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,75 +1646,87 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1667,17 +1758,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,35 +2258,41 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2326,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2582,67 +2761,73 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>1600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>6100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2651,31 +2836,37 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2712,17 +2903,17 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -2734,134 +2925,152 @@
         <v>200</v>
       </c>
       <c r="V44" s="3">
+        <v>200</v>
+      </c>
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>900</v>
+      </c>
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F46" s="3">
         <v>15200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>21400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>11600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2914,24 +3123,30 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2943,10 +3158,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2958,34 +3173,40 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2996,10 +3217,10 @@
         <v>2300</v>
       </c>
       <c r="F49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
         <v>2400</v>
@@ -3008,19 +3229,19 @@
         <v>2400</v>
       </c>
       <c r="J49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2500</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
@@ -3034,11 +3255,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,31 +3403,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3208,14 +3447,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F54" s="3">
         <v>17500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,19 +3795,25 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3566,23 +3839,23 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
@@ -3590,70 +3863,82 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,13 +3999,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3729,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3750,14 +4041,14 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3767,17 +4058,23 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4196,20 +4531,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-26500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-53500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-51800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-50400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-49300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-48100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F76" s="3">
         <v>11800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>17000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>13100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>19300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-3200</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-1400</v>
       </c>
       <c r="V89" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,13 +5718,15 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5311,38 +5752,44 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5498,37 +5957,43 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>4500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,49 +6284,55 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>11900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>3800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
@@ -5849,11 +6340,11 @@
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -5861,34 +6352,40 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
@@ -5897,20 +6394,20 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,8 @@
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -797,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -806,13 +810,13 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -827,10 +831,13 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,8 +868,8 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -874,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -897,8 +904,11 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,11 +939,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -942,13 +952,13 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -963,10 +973,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,46 +1004,47 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
@@ -1042,10 +1056,10 @@
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>500</v>
       </c>
       <c r="U12" s="3">
         <v>500</v>
@@ -1057,10 +1071,13 @@
         <v>500</v>
       </c>
       <c r="X12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1322,70 @@
         <v>2400</v>
       </c>
       <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1200</v>
       </c>
       <c r="V17" s="3">
         <v>1200</v>
       </c>
       <c r="W17" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="X17" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,62 +1398,65 @@
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1100</v>
       </c>
       <c r="V18" s="3">
         <v>-1100</v>
       </c>
       <c r="W18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1462,24 +1496,24 @@
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1530,62 +1567,65 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-1100</v>
       </c>
       <c r="V21" s="3">
         <v>-1100</v>
       </c>
       <c r="W21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,75 +1704,78 @@
         <v>-2300</v>
       </c>
       <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-1400</v>
       </c>
       <c r="X23" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1764,14 +1810,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,67 +1917,70 @@
         <v>-2300</v>
       </c>
       <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-1400</v>
       </c>
       <c r="X26" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1988,70 @@
         <v>-2300</v>
       </c>
       <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-1400</v>
       </c>
       <c r="X27" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2278,24 +2348,24 @@
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2414,70 @@
         <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-1400</v>
       </c>
       <c r="X33" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2556,146 @@
         <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-1400</v>
       </c>
       <c r="X35" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2767,38 +2857,41 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>1600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,31 +2899,31 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2842,31 +2935,34 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2909,14 +3005,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
-      </c>
-      <c r="S44" s="3">
-        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
@@ -2931,48 +3027,51 @@
         <v>200</v>
       </c>
       <c r="X44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
@@ -2981,96 +3080,102 @@
         <v>400</v>
       </c>
       <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9100</v>
+        <v>8100</v>
       </c>
       <c r="E46" s="3">
         <v>9100</v>
       </c>
       <c r="F46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G46" s="3">
         <v>15200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3129,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
         <v>100</v>
@@ -3137,19 +3242,22 @@
       <c r="X47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3164,7 +3272,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3179,39 +3287,42 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>1000</v>
       </c>
       <c r="U48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V48" s="3">
         <v>1100</v>
       </c>
       <c r="W48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X48" s="3">
         <v>1000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
         <v>2300</v>
@@ -3223,7 +3334,7 @@
         <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2400</v>
@@ -3235,7 +3346,7 @@
         <v>2400</v>
       </c>
       <c r="L49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M49" s="3">
         <v>2500</v>
@@ -3243,8 +3354,8 @@
       <c r="N49" s="3">
         <v>2500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>2500</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
@@ -3261,8 +3372,8 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3420,8 +3540,8 @@
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3435,8 +3555,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3453,11 +3573,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,13 +3947,13 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3845,20 +3982,20 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
+      <c r="Q59" s="3">
+        <v>100</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
+      <c r="U59" s="3">
+        <v>100</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
@@ -3869,76 +4006,82 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,7 +4160,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4026,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4047,11 +4193,11 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4064,8 +4210,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4537,16 +4705,16 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1400</v>
-      </c>
-      <c r="M70" s="3">
-        <v>2500</v>
       </c>
       <c r="N70" s="3">
         <v>2500</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-51800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-50400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-49300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-48100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5328,70 @@
         <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-1400</v>
       </c>
       <c r="X81" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +5940,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5758,38 +5979,41 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5963,37 +6193,40 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,52 +6533,55 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>11900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>3800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>5</v>
@@ -6346,8 +6592,8 @@
       <c r="T100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6358,47 +6604,50 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6406,11 +6655,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>EDSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,8 @@
       <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -804,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -813,13 +817,13 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
@@ -834,10 +838,13 @@
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,8 +878,8 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -884,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,11 +952,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -955,13 +965,13 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -976,10 +986,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,49 +1018,50 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>500</v>
       </c>
       <c r="Q12" s="3">
         <v>500</v>
@@ -1059,10 +1073,10 @@
         <v>500</v>
       </c>
       <c r="T12" s="3">
+        <v>500</v>
+      </c>
+      <c r="U12" s="3">
         <v>400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>500</v>
       </c>
       <c r="V12" s="3">
         <v>500</v>
@@ -1074,10 +1088,13 @@
         <v>500</v>
       </c>
       <c r="Y12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1339,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
         <v>2400</v>
       </c>
       <c r="F17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1200</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Y17" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1401,62 +1431,65 @@
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1100</v>
       </c>
       <c r="W18" s="3">
         <v>-1100</v>
       </c>
       <c r="X18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,24 +1533,24 @@
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1587,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1570,62 +1607,65 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-1100</v>
       </c>
       <c r="W21" s="3">
         <v>-1100</v>
       </c>
       <c r="X21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,90 +1735,96 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
         <v>-2300</v>
       </c>
       <c r="F23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y23" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1813,14 +1859,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
         <v>-2300</v>
       </c>
       <c r="F26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y26" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
         <v>-2300</v>
       </c>
       <c r="F27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2351,24 +2421,24 @@
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
         <v>-2300</v>
       </c>
       <c r="F33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y33" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
         <v>-2300</v>
       </c>
       <c r="F35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y35" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>7500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2860,73 +2950,76 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>1600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2938,31 +3031,34 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3008,14 +3104,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
@@ -3030,51 +3126,54 @@
         <v>200</v>
       </c>
       <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
@@ -3083,99 +3182,105 @@
         <v>400</v>
       </c>
       <c r="S45" s="3">
+        <v>400</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>9100</v>
       </c>
       <c r="F46" s="3">
         <v>9100</v>
       </c>
       <c r="G46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H46" s="3">
         <v>15200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3237,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X47" s="3">
         <v>100</v>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,13 +3362,13 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3275,7 +3383,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3290,34 +3398,37 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>1000</v>
       </c>
       <c r="V48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="W48" s="3">
         <v>1100</v>
       </c>
       <c r="X48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3325,7 +3436,7 @@
         <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2300</v>
@@ -3337,7 +3448,7 @@
         <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2400</v>
@@ -3349,7 +3460,7 @@
         <v>2400</v>
       </c>
       <c r="M49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N49" s="3">
         <v>2500</v>
@@ -3357,8 +3468,8 @@
       <c r="O49" s="3">
         <v>2500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
+      <c r="P49" s="3">
+        <v>2500</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
@@ -3375,8 +3486,8 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,8 +3663,8 @@
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3558,8 +3678,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3576,11 +3696,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,70 +3936,73 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>600</v>
       </c>
       <c r="Y57" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3950,13 +4087,13 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3985,20 +4122,20 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
+      <c r="R59" s="3">
+        <v>100</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
+      <c r="V59" s="3">
+        <v>100</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
@@ -4009,79 +4146,85 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,19 +4294,22 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4175,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4196,11 +4342,11 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4213,8 +4359,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>600</v>
       </c>
       <c r="Y66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4708,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1400</v>
-      </c>
-      <c r="N70" s="3">
-        <v>2500</v>
       </c>
       <c r="O70" s="3">
         <v>2500</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-53500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-51800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-50400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-49300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-48100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-46800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
         <v>9000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
         <v>-2300</v>
       </c>
       <c r="F81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y81" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5615,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5982,38 +6203,41 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-200</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6196,37 +6426,40 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,55 +6779,58 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>11900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>3800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
@@ -6595,8 +6841,8 @@
       <c r="U100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6616,41 +6865,41 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6658,11 +6907,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
     </row>
